--- a/cpu_affinity/fio_logs/merged_results.xlsx
+++ b/cpu_affinity/fio_logs/merged_results.xlsx
@@ -508,10 +508,10 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
-    <col width="19" customWidth="1" min="57" max="57"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
     <col width="10" customWidth="1" min="58" max="58"/>
-    <col width="10" customWidth="1" min="59" max="59"/>
-    <col width="19" customWidth="1" min="60" max="60"/>
+    <col width="19" customWidth="1" min="59" max="59"/>
+    <col width="10" customWidth="1" min="60" max="60"/>
     <col width="11" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="10" customWidth="1" min="63" max="63"/>
@@ -948,82 +948,82 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10100</v>
+        <v>6104</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17700</v>
+        <v>13200</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>25700</v>
+        <v>23000</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31700</v>
+        <v>31200</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1317</v>
+        <v>800</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2322</v>
+        <v>1725</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3374</v>
+        <v>3144</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4156</v>
+        <v>4094</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4106</v>
+        <v>4122</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3335</v>
+        <v>3277</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>99.34</v>
+        <v>163.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>112.37</v>
+        <v>148.72</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>154.47</v>
+        <v>165.14</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>247.3</v>
+        <v>251.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>501.48</v>
+        <v>499.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1249.77</v>
+        <v>1270.98</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>1139</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2638</v>
+        <v>2671</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>363</v>
@@ -1035,169 +1035,169 @@
         <v>1336</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>3032</v>
+        <v>3064</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.39</v>
+        <v>42.95</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>17.86</v>
+        <v>36.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.31</v>
+        <v>23.77</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>9.43</v>
+        <v>14.28</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>4.59</v>
+        <v>6.94</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="AO3" s="4" t="n">
         <v>0.27</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>13000</v>
+        <v>18400</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>45400</v>
+        <v>40400</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>90200</v>
+        <v>84100</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>171000</v>
+        <v>159000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>288000</v>
+        <v>266000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>391000</v>
+        <v>367000</v>
       </c>
       <c r="AX3" s="4" t="n">
-        <v>53.4</v>
+        <v>75.2</v>
       </c>
       <c r="AY3" s="4" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AZ3" s="4" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="BA3" s="4" t="n">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="BB3" s="4" t="n">
-        <v>1180</v>
+        <v>1091</v>
       </c>
       <c r="BC3" s="4" t="n">
-        <v>1603</v>
+        <v>1505</v>
       </c>
       <c r="BD3" s="4" t="n">
-        <v>76.07342</v>
+        <v>53.97438</v>
       </c>
       <c r="BE3" s="4" t="n">
-        <v>43.36119</v>
+        <v>47.20539</v>
       </c>
       <c r="BF3" s="4" t="n">
-        <v>42.99559</v>
+        <v>46.40375</v>
       </c>
       <c r="BG3" s="4" t="n">
-        <v>45.299</v>
+        <v>49.47726</v>
       </c>
       <c r="BH3" s="4" t="n">
-        <v>53.85823000000001</v>
+        <v>59.43224</v>
       </c>
       <c r="BI3" s="4" t="n">
-        <v>79.521</v>
+        <v>86.49132</v>
       </c>
       <c r="BJ3" s="4" t="n">
+        <v>99.84</v>
+      </c>
+      <c r="BK3" s="4" t="n">
+        <v>91.648</v>
+      </c>
+      <c r="BL3" s="4" t="n">
+        <v>92.672</v>
+      </c>
+      <c r="BM3" s="4" t="n">
+        <v>113.152</v>
+      </c>
+      <c r="BN3" s="4" t="n">
+        <v>154.624</v>
+      </c>
+      <c r="BO3" s="4" t="n">
+        <v>264.192</v>
+      </c>
+      <c r="BP3" s="4" t="n">
         <v>104.96</v>
       </c>
-      <c r="BK3" s="4" t="n">
-        <v>86.52800000000001</v>
-      </c>
-      <c r="BL3" s="4" t="n">
-        <v>86.52800000000001</v>
-      </c>
-      <c r="BM3" s="4" t="n">
-        <v>103.936</v>
-      </c>
-      <c r="BN3" s="4" t="n">
-        <v>140.288</v>
-      </c>
-      <c r="BO3" s="4" t="n">
-        <v>240.64</v>
-      </c>
-      <c r="BP3" s="4" t="n">
-        <v>1449.984</v>
-      </c>
       <c r="BQ3" s="4" t="n">
-        <v>103.936</v>
+        <v>110.08</v>
       </c>
       <c r="BR3" s="4" t="n">
-        <v>114.176</v>
+        <v>120.32</v>
       </c>
       <c r="BS3" s="4" t="n">
-        <v>136.192</v>
+        <v>148.48</v>
       </c>
       <c r="BT3" s="4" t="n">
-        <v>195.584</v>
+        <v>214.016</v>
       </c>
       <c r="BU3" s="4" t="n">
-        <v>354.304</v>
+        <v>382.976</v>
       </c>
       <c r="BV3" s="4" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="BW3" s="4" t="n">
-        <v>10.19</v>
+        <v>8.91</v>
       </c>
       <c r="BX3" s="4" t="n">
-        <v>7.26</v>
+        <v>6.64</v>
       </c>
       <c r="BY3" s="4" t="n">
-        <v>6.29</v>
+        <v>5.8</v>
       </c>
       <c r="BZ3" s="4" t="n">
-        <v>5.03</v>
+        <v>4.77</v>
       </c>
       <c r="CA3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.5</v>
       </c>
       <c r="CB3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="CC3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="CD3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="CE3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="CF3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="CG3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -1207,256 +1207,256 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3618</v>
+        <v>3386</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7220</v>
+        <v>6826</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>16400</v>
+        <v>13300</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26400</v>
+        <v>23900</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33700</v>
+        <v>28500</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>32400</v>
+        <v>24200</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>946</v>
+        <v>895</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2149</v>
+        <v>1740</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3465</v>
+        <v>3136</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4412</v>
+        <v>3737</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4245</v>
+        <v>3167</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>275.54</v>
+        <v>294.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>274.37</v>
+        <v>286.94</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>240.24</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>294.04</v>
+        <v>319.66</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>468.92</v>
+        <v>492.84</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>978.01</v>
+        <v>1225.63</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>619</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>486</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>510</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>668</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1188</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2638</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>660</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>545</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>461</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>449</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>537</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>955</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2008</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>611</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>498</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>619</v>
+        <v>848</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1106</v>
+        <v>1467</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>2573</v>
+        <v>3425</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.99</v>
+        <v>27.13</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>30.32</v>
+        <v>30.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>25.17</v>
+        <v>28.27</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>23.61</v>
+        <v>22.74</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>11.48</v>
+        <v>13.75</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>4.95</v>
+        <v>5.18</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.85</v>
       </c>
       <c r="AN4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="AO4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="AP4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>28500</v>
+        <v>26500</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>54900</v>
+        <v>50700</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>127000</v>
+        <v>111000</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>223000</v>
+        <v>193000</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>214000</v>
+        <v>182000</v>
       </c>
       <c r="AX4" s="4" t="n">
-        <v>56.2</v>
+        <v>55.2</v>
       </c>
       <c r="AY4" s="4" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AZ4" s="4" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="BA4" s="4" t="n">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="BB4" s="4" t="n">
-        <v>915</v>
+        <v>790</v>
       </c>
       <c r="BC4" s="4" t="n">
-        <v>876</v>
+        <v>747</v>
       </c>
       <c r="BD4" s="4" t="n">
-        <v>72.07329</v>
+        <v>73.41388000000001</v>
       </c>
       <c r="BE4" s="4" t="n">
-        <v>68.05185</v>
+        <v>74.35232000000001</v>
       </c>
       <c r="BF4" s="4" t="n">
-        <v>70.74344000000001</v>
+        <v>76.79875</v>
       </c>
       <c r="BG4" s="4" t="n">
-        <v>60.13715</v>
+        <v>70.61686999999999</v>
       </c>
       <c r="BH4" s="4" t="n">
-        <v>69.00686999999999</v>
+        <v>82.28485000000001</v>
       </c>
       <c r="BI4" s="4" t="n">
-        <v>147.61884</v>
+        <v>174.62591</v>
       </c>
       <c r="BJ4" s="4" t="n">
-        <v>137</v>
+        <v>136.192</v>
       </c>
       <c r="BK4" s="4" t="n">
-        <v>136.192</v>
+        <v>140.288</v>
       </c>
       <c r="BL4" s="4" t="n">
-        <v>143</v>
+        <v>160.768</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>140.288</v>
+        <v>166.912</v>
       </c>
       <c r="BN4" s="4" t="n">
+        <v>228.352</v>
+      </c>
+      <c r="BO4" s="4" t="n">
+        <v>444.416</v>
+      </c>
+      <c r="BP4" s="4" t="n">
         <v>189.44</v>
       </c>
-      <c r="BO4" s="4" t="n">
-        <v>382.976</v>
-      </c>
-      <c r="BP4" s="4" t="n">
-        <v>174</v>
-      </c>
       <c r="BQ4" s="4" t="n">
-        <v>171.008</v>
+        <v>191.488</v>
       </c>
       <c r="BR4" s="4" t="n">
-        <v>188</v>
+        <v>203.776</v>
       </c>
       <c r="BS4" s="4" t="n">
-        <v>195.584</v>
+        <v>236.544</v>
       </c>
       <c r="BT4" s="4" t="n">
-        <v>292.864</v>
+        <v>354.304</v>
       </c>
       <c r="BU4" s="4" t="n">
-        <v>528.384</v>
+        <v>602.112</v>
       </c>
       <c r="BV4" s="4" t="n">
-        <v>17.84</v>
+        <v>16.76</v>
       </c>
       <c r="BW4" s="4" t="n">
-        <v>17.92</v>
+        <v>18</v>
       </c>
       <c r="BX4" s="4" t="n">
-        <v>19.12</v>
+        <v>17.79</v>
       </c>
       <c r="BY4" s="4" t="n">
-        <v>14.48</v>
+        <v>13.79</v>
       </c>
       <c r="BZ4" s="4" t="n">
-        <v>6.05</v>
+        <v>5.02</v>
       </c>
       <c r="CA4" s="4" t="n">
-        <v>3.27</v>
+        <v>2.74</v>
       </c>
       <c r="CB4" s="4" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="CC4" s="4" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="CD4" s="4" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="CE4" s="4" t="n">
         <v>2.02</v>
       </c>
       <c r="CF4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="CG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -1466,256 +1466,256 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2728</v>
+        <v>2661</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5537</v>
+        <v>5300</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20800</v>
+        <v>19700</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33500</v>
+        <v>25800</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>24000</v>
+        <v>26600</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2728</v>
+        <v>2585</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4386</v>
+        <v>3387</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3275</v>
+        <v>3488</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>365.35</v>
+        <v>374.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>353.79</v>
+        <v>370.56</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>351.94</v>
+        <v>356.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>376.78</v>
+        <v>396.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>466.38</v>
+        <v>574.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1261.68</v>
+        <v>1053.87</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>930</v>
+        <v>1467</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2540</v>
+        <v>3097</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>873</v>
+        <v>955</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1123</v>
+        <v>1795</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>3064</v>
+        <v>3818</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.53</v>
+        <v>24.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>24.37</v>
+        <v>24.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>27.6</v>
+        <v>25.34</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>26.66</v>
+        <v>25.03</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>17.46</v>
+        <v>16.59</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="AM5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AR5" s="4" t="n">
+        <v>10200</v>
+      </c>
+      <c r="AS5" s="4" t="n">
+        <v>24700</v>
+      </c>
+      <c r="AT5" s="4" t="n">
+        <v>46900</v>
+      </c>
+      <c r="AU5" s="4" t="n">
+        <v>87700</v>
+      </c>
+      <c r="AV5" s="4" t="n">
+        <v>211000</v>
+      </c>
+      <c r="AW5" s="4" t="n">
+        <v>238000</v>
+      </c>
+      <c r="AX5" s="4" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AY5" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ5" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="BA5" s="4" t="n">
+        <v>359</v>
+      </c>
+      <c r="BB5" s="4" t="n">
+        <v>862</v>
+      </c>
+      <c r="BC5" s="4" t="n">
+        <v>973</v>
+      </c>
+      <c r="BD5" s="4" t="n">
+        <v>97.22609</v>
+      </c>
+      <c r="BE5" s="4" t="n">
+        <v>79.97396000000001</v>
+      </c>
+      <c r="BF5" s="4" t="n">
+        <v>81.96829</v>
+      </c>
+      <c r="BG5" s="4" t="n">
+        <v>88.02678999999999</v>
+      </c>
+      <c r="BH5" s="4" t="n">
+        <v>74.63249</v>
+      </c>
+      <c r="BI5" s="4" t="n">
+        <v>133.16882</v>
+      </c>
+      <c r="BJ5" s="4" t="n">
+        <v>254.976</v>
+      </c>
+      <c r="BK5" s="4" t="n">
+        <v>156.672</v>
+      </c>
+      <c r="BL5" s="4" t="n">
+        <v>168.96</v>
+      </c>
+      <c r="BM5" s="4" t="n">
+        <v>191.488</v>
+      </c>
+      <c r="BN5" s="4" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="BO5" s="4" t="n">
+        <v>387.072</v>
+      </c>
+      <c r="BP5" s="4" t="n">
+        <v>301.056</v>
+      </c>
+      <c r="BQ5" s="4" t="n">
+        <v>201.728</v>
+      </c>
+      <c r="BR5" s="4" t="n">
+        <v>216.064</v>
+      </c>
+      <c r="BS5" s="4" t="n">
+        <v>252.928</v>
+      </c>
+      <c r="BT5" s="4" t="n">
+        <v>395.264</v>
+      </c>
+      <c r="BU5" s="4" t="n">
+        <v>643.072</v>
+      </c>
+      <c r="BV5" s="4" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="BW5" s="4" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="BX5" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="BY5" s="4" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="BZ5" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="CA5" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="CB5" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="CC5" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="CD5" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="CE5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="CF5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CG5" s="4" t="n">
         <v>0.52</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>10100</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>26300</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>50800</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>95400</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>230000</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AX5" s="4" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="AY5" s="4" t="n">
-        <v>108</v>
-      </c>
-      <c r="AZ5" s="4" t="n">
-        <v>208</v>
-      </c>
-      <c r="BA5" s="4" t="n">
-        <v>391</v>
-      </c>
-      <c r="BB5" s="4" t="n">
-        <v>944</v>
-      </c>
-      <c r="BC5" s="4" t="n">
-        <v>1228</v>
-      </c>
-      <c r="BD5" s="4" t="n">
-        <v>98.02873</v>
-      </c>
-      <c r="BE5" s="4" t="n">
-        <v>73.21592999999999</v>
-      </c>
-      <c r="BF5" s="4" t="n">
-        <v>74.52193</v>
-      </c>
-      <c r="BG5" s="4" t="n">
-        <v>79.33963</v>
-      </c>
-      <c r="BH5" s="4" t="n">
-        <v>64.63398000000001</v>
-      </c>
-      <c r="BI5" s="4" t="n">
-        <v>100.49454</v>
-      </c>
-      <c r="BJ5" s="4" t="n">
-        <v>277</v>
-      </c>
-      <c r="BK5" s="4" t="n">
-        <v>149</v>
-      </c>
-      <c r="BL5" s="4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BM5" s="4" t="n">
-        <v>171.008</v>
-      </c>
-      <c r="BN5" s="4" t="n">
-        <v>187.392</v>
-      </c>
-      <c r="BO5" s="4" t="n">
-        <v>288.768</v>
-      </c>
-      <c r="BP5" s="4" t="n">
-        <v>310</v>
-      </c>
-      <c r="BQ5" s="4" t="n">
-        <v>190</v>
-      </c>
-      <c r="BR5" s="4" t="n">
-        <v>196</v>
-      </c>
-      <c r="BS5" s="4" t="n">
-        <v>218.112</v>
-      </c>
-      <c r="BT5" s="4" t="n">
-        <v>292.864</v>
-      </c>
-      <c r="BU5" s="4" t="n">
-        <v>468.992</v>
-      </c>
-      <c r="BV5" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="BW5" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="BX5" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="BY5" s="4" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="BZ5" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="CA5" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="CB5" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="CC5" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="CD5" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="CE5" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="CF5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="CG5" s="4" t="n">
-        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1817,7 @@
     <col width="10" customWidth="1" min="58" max="58"/>
     <col width="10" customWidth="1" min="59" max="59"/>
     <col width="10" customWidth="1" min="60" max="60"/>
-    <col width="11" customWidth="1" min="61" max="61"/>
+    <col width="19" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="10" customWidth="1" min="63" max="63"/>
     <col width="10" customWidth="1" min="64" max="64"/>
@@ -2253,256 +2253,256 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14600</v>
+        <v>11800</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>28500</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5977</v>
+        <v>6773</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1907</v>
+        <v>1547</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2991</v>
+        <v>2970</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3730</v>
+        <v>3735</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3420</v>
+        <v>3441</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>783</v>
+        <v>888</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>22.14977</v>
+        <v>21.96</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>23.70644</v>
+        <v>23.58</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>29.21</v>
+        <v>28.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>50.64</v>
+        <v>53.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>347.92</v>
+        <v>334.19</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>3759.66</v>
+        <v>3139.41</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>29.056</v>
+        <v>29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.592</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>37</v>
+        <v>36.608</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.848</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>32.128</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>59</v>
+        <v>42.752</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>106431</v>
+        <v>107480</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.12</v>
+        <v>41.27</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>34.8</v>
+        <v>49.58</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>29.75</v>
+        <v>30.79</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>21.33</v>
+        <v>22.63</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>20.49</v>
+        <v>18.1</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>2.85</v>
+        <v>1.01</v>
       </c>
       <c r="AM3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AP3" s="4" t="n">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>0.71</v>
       </c>
       <c r="AQ3" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>201000</v>
+        <v>493000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>284000</v>
+        <v>659000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>344000</v>
+        <v>777000</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>269000</v>
+        <v>847000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>219000</v>
+        <v>810000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>181000</v>
+        <v>235000</v>
       </c>
       <c r="AX3" s="4" t="n">
-        <v>822</v>
+        <v>2018</v>
       </c>
       <c r="AY3" s="4" t="n">
-        <v>1164</v>
+        <v>2701</v>
       </c>
       <c r="AZ3" s="4" t="n">
-        <v>1408</v>
+        <v>3181</v>
       </c>
       <c r="BA3" s="4" t="n">
-        <v>1102</v>
+        <v>3468</v>
       </c>
       <c r="BB3" s="4" t="n">
-        <v>898</v>
+        <v>3318</v>
       </c>
       <c r="BC3" s="4" t="n">
-        <v>743</v>
+        <v>963</v>
       </c>
       <c r="BD3" s="4" t="n">
-        <v>0.83587</v>
+        <v>0.87581</v>
       </c>
       <c r="BE3" s="4" t="n">
-        <v>0.87697</v>
+        <v>1.05415</v>
       </c>
       <c r="BF3" s="4" t="n">
-        <v>1.08688</v>
+        <v>1.17454</v>
       </c>
       <c r="BG3" s="4" t="n">
-        <v>2.29672</v>
+        <v>1.89342</v>
       </c>
       <c r="BH3" s="4" t="n">
-        <v>25.76403</v>
+        <v>10.75014</v>
       </c>
       <c r="BI3" s="4" t="n">
-        <v>135.39513</v>
+        <v>80.94328999999999</v>
       </c>
       <c r="BJ3" s="4" t="n">
-        <v>1.272</v>
+        <v>1.288</v>
       </c>
       <c r="BK3" s="4" t="n">
-        <v>1.384</v>
+        <v>1.72</v>
       </c>
       <c r="BL3" s="4" t="n">
-        <v>1.784</v>
+        <v>1.928</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>3.056</v>
+        <v>3.152</v>
       </c>
       <c r="BN3" s="4" t="n">
-        <v>4.256</v>
+        <v>4.384</v>
       </c>
       <c r="BO3" s="4" t="n">
-        <v>4.512</v>
+        <v>4.768</v>
       </c>
       <c r="BP3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.688</v>
       </c>
       <c r="BQ3" s="4" t="n">
-        <v>1.88</v>
+        <v>2.192</v>
       </c>
       <c r="BR3" s="4" t="n">
-        <v>2.416</v>
+        <v>2.608</v>
       </c>
       <c r="BS3" s="4" t="n">
         <v>4.192</v>
       </c>
       <c r="BT3" s="4" t="n">
-        <v>5.984</v>
+        <v>6.048</v>
       </c>
       <c r="BU3" s="4" t="n">
-        <v>7.2</v>
+        <v>6.816</v>
       </c>
       <c r="BV3" s="4" t="n">
-        <v>22.19</v>
+        <v>51.79</v>
       </c>
       <c r="BW3" s="4" t="n">
-        <v>15.77</v>
+        <v>42.66</v>
       </c>
       <c r="BX3" s="4" t="n">
-        <v>12.82</v>
+        <v>30.08</v>
       </c>
       <c r="BY3" s="4" t="n">
-        <v>7.7</v>
+        <v>23.79</v>
       </c>
       <c r="BZ3" s="4" t="n">
-        <v>4.49</v>
+        <v>15.64</v>
       </c>
       <c r="CA3" s="4" t="n">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="CB3" s="4" t="n">
-        <v>3.52</v>
+        <v>7.72</v>
       </c>
       <c r="CC3" s="4" t="n">
-        <v>3.09</v>
+        <v>6.59</v>
       </c>
       <c r="CD3" s="4" t="n">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="CE3" s="4" t="n">
-        <v>0.87</v>
+        <v>2.57</v>
       </c>
       <c r="CF3" s="4" t="n">
-        <v>0.32</v>
+        <v>1.49</v>
       </c>
       <c r="CG3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -2512,256 +2512,256 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2540</v>
+        <v>4131</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12700</v>
+        <v>7980</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>20300</v>
+        <v>11500</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25700</v>
+        <v>8780</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24300</v>
+        <v>7074</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6715</v>
+        <v>13300</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1665</v>
+        <v>1046</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2663</v>
+        <v>1509</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3369</v>
+        <v>1151</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3181</v>
+        <v>927</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>880</v>
+        <v>1748</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>253</v>
+        <v>102.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>56.81</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>66.25</v>
+        <v>65.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>95.05</v>
+        <v>113.56</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>430.27</v>
+        <v>1059.97</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>3158.93</v>
+        <v>1219.94</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>416</v>
+        <v>734</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>570</v>
+        <v>41157</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>101188</v>
+        <v>44303</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.03</v>
+        <v>12.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>12.96</v>
+        <v>11.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.22</v>
+        <v>6.96</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>13.06</v>
+        <v>4.88</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>12.74</v>
+        <v>3.82</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>1.8</v>
+        <v>2.97</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.55</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AN4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AO4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="AP4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.31</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>80100</v>
+        <v>112000</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>365000</v>
+        <v>346000</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>524000</v>
+        <v>489000</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>687000</v>
+        <v>570000</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>206000</v>
+        <v>180000</v>
       </c>
       <c r="AX4" s="4" t="n">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="AY4" s="4" t="n">
-        <v>923</v>
+        <v>840</v>
       </c>
       <c r="AZ4" s="4" t="n">
-        <v>1496</v>
+        <v>1418</v>
       </c>
       <c r="BA4" s="4" t="n">
-        <v>2146</v>
+        <v>2005</v>
       </c>
       <c r="BB4" s="4" t="n">
-        <v>2815</v>
+        <v>2335</v>
       </c>
       <c r="BC4" s="4" t="n">
-        <v>842</v>
+        <v>736</v>
       </c>
       <c r="BD4" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="BE4" s="4" t="n">
-        <v>6.75</v>
+        <v>7.63</v>
       </c>
       <c r="BF4" s="4" t="n">
-        <v>7.02</v>
+        <v>8.06</v>
       </c>
       <c r="BG4" s="4" t="n">
-        <v>10.57</v>
+        <v>10.92</v>
       </c>
       <c r="BH4" s="4" t="n">
-        <v>15.04</v>
+        <v>18.06</v>
       </c>
       <c r="BI4" s="4" t="n">
-        <v>104.25</v>
+        <v>119.87</v>
       </c>
       <c r="BJ4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="BK4" s="4" t="n">
-        <v>8.384</v>
-      </c>
       <c r="BL4" s="4" t="n">
-        <v>8.768000000000001</v>
+        <v>10.688</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>14.272</v>
+        <v>14.784</v>
       </c>
       <c r="BN4" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BO4" s="4" t="n">
         <v>24</v>
       </c>
       <c r="BP4" s="4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BQ4" s="4" t="n">
-        <v>11.584</v>
+        <v>14</v>
       </c>
       <c r="BR4" s="4" t="n">
-        <v>10.176</v>
+        <v>12.608</v>
       </c>
       <c r="BS4" s="4" t="n">
-        <v>18.048</v>
+        <v>25.216</v>
       </c>
       <c r="BT4" s="4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BU4" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BV4" s="4" t="n">
-        <v>33.55</v>
+        <v>40.75</v>
       </c>
       <c r="BW4" s="4" t="n">
-        <v>32.45</v>
+        <v>36.34</v>
       </c>
       <c r="BX4" s="4" t="n">
-        <v>26.87</v>
+        <v>33.69</v>
       </c>
       <c r="BY4" s="4" t="n">
-        <v>36.76</v>
+        <v>32.66</v>
       </c>
       <c r="BZ4" s="4" t="n">
-        <v>20.2</v>
+        <v>16.11</v>
       </c>
       <c r="CA4" s="4" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="CB4" s="4" t="n">
-        <v>4.16</v>
+        <v>7.35</v>
       </c>
       <c r="CC4" s="4" t="n">
-        <v>5.54</v>
+        <v>4.63</v>
       </c>
       <c r="CD4" s="4" t="n">
-        <v>4.33</v>
+        <v>4.87</v>
       </c>
       <c r="CE4" s="4" t="n">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="CF4" s="4" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="CG4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -2771,256 +2771,256 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5595</v>
+        <v>5025</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9816</v>
+        <v>13800</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>12200</v>
+        <v>14400</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8572</v>
+        <v>18200</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19100</v>
+        <v>16600</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6606</v>
+        <v>6615</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>733</v>
+        <v>659</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1287</v>
+        <v>1808</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1599</v>
+        <v>1889</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1124</v>
+        <v>2385</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2509</v>
+        <v>2176</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>55.34</v>
+        <v>56.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>83.33</v>
+        <v>88.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>149.98</v>
+        <v>150.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>269.25</v>
+        <v>283.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>662.4</v>
+        <v>730.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3124.93</v>
+        <v>2993.42</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>979</v>
+        <v>1123</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>7570</v>
+        <v>7963</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2540</v>
+        <v>2638</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>63701</v>
+        <v>62129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.2</v>
+        <v>15.41</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>27.97</v>
+        <v>41.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>37.16</v>
+        <v>45.04</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>28.25</v>
+        <v>61.81</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>82.14</v>
+        <v>76.94</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>32.5</v>
+        <v>33.69</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>97000</v>
+        <v>163000</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>199000</v>
+        <v>173000</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>219000</v>
+        <v>211000</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>254000</v>
+        <v>239000</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>222000</v>
+        <v>202000</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>132000</v>
+        <v>121000</v>
       </c>
       <c r="AX5" s="4" t="n">
-        <v>401</v>
+        <v>666</v>
       </c>
       <c r="AY5" s="4" t="n">
-        <v>815</v>
+        <v>708</v>
       </c>
       <c r="AZ5" s="4" t="n">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="BA5" s="4" t="n">
-        <v>1041</v>
+        <v>980</v>
       </c>
       <c r="BB5" s="4" t="n">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="BC5" s="4" t="n">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="BD5" s="4" t="n">
-        <v>5.94749</v>
+        <v>4.91</v>
       </c>
       <c r="BE5" s="4" t="n">
-        <v>8.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="BF5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.9</v>
       </c>
       <c r="BG5" s="4" t="n">
-        <v>26.81</v>
+        <v>29.4</v>
       </c>
       <c r="BH5" s="4" t="n">
-        <v>65.17</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="BI5" s="4" t="n">
-        <v>191.66</v>
+        <v>212.2</v>
       </c>
       <c r="BJ5" s="4" t="n">
-        <v>7.328</v>
+        <v>6.432</v>
       </c>
       <c r="BK5" s="4" t="n">
-        <v>10.944</v>
+        <v>13</v>
       </c>
       <c r="BL5" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BM5" s="4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BN5" s="4" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="BO5" s="4" t="n">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="BP5" s="4" t="n">
-        <v>8.384</v>
+        <v>7.456</v>
       </c>
       <c r="BQ5" s="4" t="n">
-        <v>12.608</v>
+        <v>14</v>
       </c>
       <c r="BR5" s="4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BS5" s="4" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="BT5" s="4" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="BU5" s="4" t="n">
-        <v>594</v>
+        <v>734</v>
       </c>
       <c r="BV5" s="4" t="n">
-        <v>31.03</v>
+        <v>40.29</v>
       </c>
       <c r="BW5" s="4" t="n">
-        <v>59.31</v>
+        <v>57.9</v>
       </c>
       <c r="BX5" s="4" t="n">
-        <v>70.16</v>
+        <v>74.14</v>
       </c>
       <c r="BY5" s="4" t="n">
-        <v>81.56999999999999</v>
+        <v>82.92</v>
       </c>
       <c r="BZ5" s="4" t="n">
-        <v>91.8</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="CA5" s="4" t="n">
-        <v>60.81</v>
+        <v>61.02</v>
       </c>
       <c r="CB5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="CC5" s="4" t="n">
-        <v>2.73</v>
+        <v>2.66</v>
       </c>
       <c r="CD5" s="4" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="CE5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.87</v>
       </c>
       <c r="CF5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="CG5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -3119,10 +3119,10 @@
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
     <col width="10" customWidth="1" min="57" max="57"/>
-    <col width="19" customWidth="1" min="58" max="58"/>
+    <col width="10" customWidth="1" min="58" max="58"/>
     <col width="10" customWidth="1" min="59" max="59"/>
     <col width="10" customWidth="1" min="60" max="60"/>
-    <col width="10" customWidth="1" min="61" max="61"/>
+    <col width="19" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="10" customWidth="1" min="63" max="63"/>
     <col width="10" customWidth="1" min="64" max="64"/>
@@ -3558,256 +3558,256 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21500</v>
+        <v>13800</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>30600</v>
+        <v>20300</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>33500</v>
+        <v>21400</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>33200</v>
+        <v>21300</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33100</v>
+        <v>17900</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>35100</v>
+        <v>17700</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2818</v>
+        <v>1811</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4006</v>
+        <v>2658</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4396</v>
+        <v>2805</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4354</v>
+        <v>2788</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4339</v>
+        <v>2348</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4603</v>
+        <v>2315</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>46.26</v>
+        <v>72.05</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>65.14</v>
+        <v>96.62</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>118.37</v>
+        <v>186.23</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>231.72</v>
+        <v>363.46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>471.36</v>
+        <v>877.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>910.12</v>
+        <v>1810.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>807</v>
+        <v>1254</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1631</v>
+        <v>3425</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3392</v>
+        <v>6980</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>420</v>
+        <v>693</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1090</v>
+        <v>1565</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2040</v>
+        <v>3949</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>3982</v>
+        <v>8848</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.32</v>
+        <v>45.61</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>45.56</v>
+        <v>43.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>27.7</v>
+        <v>30.97</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>18.86</v>
+        <v>19.1</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>5.39</v>
+        <v>4.08</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>1.03</v>
+        <v>0.57</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="AO3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>688000</v>
+        <v>435000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>915000</v>
+        <v>664000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>925000</v>
+        <v>590000</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>1012000</v>
+        <v>618000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>1018000</v>
+        <v>545000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>1094000</v>
+        <v>586000</v>
       </c>
       <c r="AX3" s="4" t="n">
-        <v>2818</v>
+        <v>1784</v>
       </c>
       <c r="AY3" s="4" t="n">
-        <v>3748</v>
+        <v>2718</v>
       </c>
       <c r="AZ3" s="4" t="n">
-        <v>3787</v>
+        <v>2418</v>
       </c>
       <c r="BA3" s="4" t="n">
-        <v>4146</v>
+        <v>2533</v>
       </c>
       <c r="BB3" s="4" t="n">
-        <v>4168</v>
+        <v>2234</v>
       </c>
       <c r="BC3" s="4" t="n">
-        <v>4482</v>
+        <v>2401</v>
       </c>
       <c r="BD3" s="4" t="n">
-        <v>1.36509</v>
+        <v>2.18148</v>
       </c>
       <c r="BE3" s="4" t="n">
-        <v>2.08868</v>
+        <v>2.8636</v>
       </c>
       <c r="BF3" s="4" t="n">
-        <v>4.141640000000001</v>
+        <v>6.52319</v>
       </c>
       <c r="BG3" s="4" t="n">
-        <v>7.68583</v>
+        <v>12.56657</v>
       </c>
       <c r="BH3" s="4" t="n">
-        <v>15.38793</v>
+        <v>28.84371</v>
       </c>
       <c r="BI3" s="4" t="n">
-        <v>28.95871</v>
+        <v>54.06825</v>
       </c>
       <c r="BJ3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.868</v>
       </c>
       <c r="BK3" s="4" t="n">
-        <v>0.708</v>
+        <v>0.86</v>
       </c>
       <c r="BL3" s="4" t="n">
-        <v>1.064</v>
+        <v>1.4</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>1.432</v>
+        <v>2.128</v>
       </c>
       <c r="BN3" s="4" t="n">
-        <v>1.512</v>
+        <v>2.192</v>
       </c>
       <c r="BO3" s="4" t="n">
-        <v>1.4</v>
+        <v>2.224</v>
       </c>
       <c r="BP3" s="4" t="n">
-        <v>27.776</v>
+        <v>33.024</v>
       </c>
       <c r="BQ3" s="4" t="n">
-        <v>95.744</v>
+        <v>138.24</v>
       </c>
       <c r="BR3" s="4" t="n">
-        <v>199.68</v>
+        <v>305.152</v>
       </c>
       <c r="BS3" s="4" t="n">
-        <v>366.592</v>
+        <v>602.112</v>
       </c>
       <c r="BT3" s="4" t="n">
-        <v>684.032</v>
+        <v>1122.304</v>
       </c>
       <c r="BU3" s="4" t="n">
-        <v>1056.768</v>
+        <v>1941.504</v>
       </c>
       <c r="BV3" s="4" t="n">
-        <v>55.79</v>
+        <v>39.1</v>
       </c>
       <c r="BW3" s="4" t="n">
-        <v>39.81</v>
+        <v>36.88</v>
       </c>
       <c r="BX3" s="4" t="n">
-        <v>32.38</v>
+        <v>28.6</v>
       </c>
       <c r="BY3" s="4" t="n">
-        <v>19.04</v>
+        <v>19.73</v>
       </c>
       <c r="BZ3" s="4" t="n">
-        <v>9.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="CA3" s="4" t="n">
-        <v>5.32</v>
+        <v>5.28</v>
       </c>
       <c r="CB3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="CC3" s="4" t="n">
-        <v>6.39</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="CD3" s="4" t="n">
-        <v>7.06</v>
+        <v>6.48</v>
       </c>
       <c r="CE3" s="4" t="n">
-        <v>4.34</v>
+        <v>5.07</v>
       </c>
       <c r="CF3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.54</v>
       </c>
       <c r="CG3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -3817,256 +3817,256 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17600</v>
+        <v>15000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>20400</v>
+        <v>17300</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22300</v>
+        <v>26400</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20500</v>
+        <v>18200</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2304</v>
+        <v>1970</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2668</v>
+        <v>2272</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3385</v>
+        <v>3409</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2919</v>
+        <v>3462</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2689</v>
+        <v>2382</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2550</v>
+        <v>2331</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>56.64</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>86.20999999999999</v>
+        <v>114.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>147.17</v>
+        <v>152.06</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>352.31</v>
+        <v>293.96</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>770.58</v>
+        <v>794.24</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1626.79</v>
+        <v>1718.97</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>996</v>
+        <v>922</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2008</v>
+        <v>2114</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>4146</v>
+        <v>4015</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>359</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2311</v>
+        <v>2343</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>5538</v>
+        <v>5800</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.25</v>
+        <v>41.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>38.84</v>
+        <v>39.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>29.09</v>
+        <v>29.14</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>18.77</v>
+        <v>18.83</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>9.33</v>
+        <v>9.85</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="AN4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AO4" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="AO4" s="4" t="n">
-        <v>0.32</v>
-      </c>
       <c r="AP4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>137000</v>
+        <v>488000</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>881000</v>
+        <v>552000</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>1095000</v>
+        <v>655000</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>964000</v>
+        <v>499000</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>897000</v>
+        <v>451000</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>848000</v>
+        <v>438000</v>
       </c>
       <c r="AX4" s="4" t="n">
-        <v>560</v>
+        <v>2000</v>
       </c>
       <c r="AY4" s="4" t="n">
-        <v>3609</v>
+        <v>2261</v>
       </c>
       <c r="AZ4" s="4" t="n">
-        <v>4483</v>
+        <v>2681</v>
       </c>
       <c r="BA4" s="4" t="n">
-        <v>3948</v>
+        <v>2043</v>
       </c>
       <c r="BB4" s="4" t="n">
-        <v>3674</v>
+        <v>1848</v>
       </c>
       <c r="BC4" s="4" t="n">
-        <v>3472</v>
+        <v>1795</v>
       </c>
       <c r="BD4" s="4" t="n">
-        <v>6.91275</v>
+        <v>1.94339</v>
       </c>
       <c r="BE4" s="4" t="n">
-        <v>2.15037</v>
+        <v>3.06688</v>
       </c>
       <c r="BF4" s="4" t="n">
-        <v>3.48678</v>
+        <v>5.70481</v>
       </c>
       <c r="BG4" s="4" t="n">
-        <v>7.9978</v>
+        <v>15.47526</v>
       </c>
       <c r="BH4" s="4" t="n">
-        <v>17.38597</v>
+        <v>34.37654</v>
       </c>
       <c r="BI4" s="4" t="n">
-        <v>36.95587</v>
+        <v>71.06938000000001</v>
       </c>
       <c r="BJ4" s="4" t="n">
-        <v>2.256</v>
+        <v>0.524</v>
       </c>
       <c r="BK4" s="4" t="n">
-        <v>0.612</v>
+        <v>0.804</v>
       </c>
       <c r="BL4" s="4" t="n">
-        <v>0.668</v>
+        <v>1.176</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>1.384</v>
+        <v>2.384</v>
       </c>
       <c r="BN4" s="4" t="n">
-        <v>1.368</v>
+        <v>2.384</v>
       </c>
       <c r="BO4" s="4" t="n">
-        <v>1.528</v>
+        <v>2.288</v>
       </c>
       <c r="BP4" s="4" t="n">
-        <v>107.008</v>
+        <v>40.704</v>
       </c>
       <c r="BQ4" s="4" t="n">
-        <v>99.84</v>
+        <v>63.232</v>
       </c>
       <c r="BR4" s="4" t="n">
-        <v>148.48</v>
+        <v>199.68</v>
       </c>
       <c r="BS4" s="4" t="n">
-        <v>407.552</v>
+        <v>774.144</v>
       </c>
       <c r="BT4" s="4" t="n">
-        <v>970.752</v>
+        <v>2007.04</v>
       </c>
       <c r="BU4" s="4" t="n">
-        <v>1990.656</v>
+        <v>4227.072</v>
       </c>
       <c r="BV4" s="4" t="n">
-        <v>35.79</v>
+        <v>40.11</v>
       </c>
       <c r="BW4" s="4" t="n">
-        <v>38.29</v>
+        <v>33.69</v>
       </c>
       <c r="BX4" s="4" t="n">
-        <v>25.39</v>
+        <v>24.23</v>
       </c>
       <c r="BY4" s="4" t="n">
-        <v>18.83</v>
+        <v>20.48</v>
       </c>
       <c r="BZ4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="CA4" s="4" t="n">
-        <v>4.18</v>
+        <v>4.1</v>
       </c>
       <c r="CB4" s="4" t="n">
-        <v>11.37</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="CC4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>5.07</v>
       </c>
       <c r="CD4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.83</v>
       </c>
       <c r="CE4" s="4" t="n">
-        <v>4.48</v>
+        <v>4.91</v>
       </c>
       <c r="CF4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="CG4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4076,256 +4076,256 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>21200</v>
+        <v>14200</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>29500</v>
+        <v>17600</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30500</v>
+        <v>19800</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33500</v>
+        <v>19400</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>34300</v>
+        <v>18700</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1718</v>
+        <v>1561</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2782</v>
+        <v>1863</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3869</v>
+        <v>2307</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4001</v>
+        <v>2593</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4387</v>
+        <v>2545</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4490</v>
+        <v>2452</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>75.89</v>
+        <v>83.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>92.13</v>
+        <v>134.73</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>133.28</v>
+        <v>223.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>254.49</v>
+        <v>399.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>470.67</v>
+        <v>805.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>920.41</v>
+        <v>1694.88</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>437</v>
+        <v>742</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>848</v>
+        <v>1418</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1663</v>
+        <v>3097</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>3949</v>
+        <v>7439</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>416</v>
+        <v>570</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>586</v>
+        <v>922</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1221</v>
+        <v>1713</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2114</v>
+        <v>3720</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>5997</v>
+        <v>8979</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.04</v>
+        <v>49.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>42.77</v>
+        <v>38.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>42.02</v>
+        <v>37.56</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>33.47</v>
+        <v>24.44</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>18.88</v>
+        <v>13.67</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>10.74</v>
+        <v>5.63</v>
       </c>
       <c r="AL5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.5</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>501000</v>
+        <v>423000</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>731000</v>
+        <v>468000</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>953000</v>
+        <v>568000</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>997000</v>
+        <v>671000</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>1075000</v>
+        <v>550000</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>1040000</v>
+        <v>557000</v>
       </c>
       <c r="AX5" s="4" t="n">
-        <v>2053</v>
+        <v>1735</v>
       </c>
       <c r="AY5" s="4" t="n">
-        <v>2995</v>
+        <v>1916</v>
       </c>
       <c r="AZ5" s="4" t="n">
-        <v>3905</v>
+        <v>2328</v>
       </c>
       <c r="BA5" s="4" t="n">
-        <v>4085</v>
+        <v>2750</v>
       </c>
       <c r="BB5" s="4" t="n">
-        <v>4405</v>
+        <v>2254</v>
       </c>
       <c r="BC5" s="4" t="n">
-        <v>4261</v>
+        <v>2283</v>
       </c>
       <c r="BD5" s="4" t="n">
-        <v>1.88552</v>
+        <v>2.23712</v>
       </c>
       <c r="BE5" s="4" t="n">
-        <v>2.5304</v>
+        <v>4.02151</v>
       </c>
       <c r="BF5" s="4" t="n">
-        <v>3.94271</v>
+        <v>6.64128</v>
       </c>
       <c r="BG5" s="4" t="n">
-        <v>7.61767</v>
+        <v>11.19215</v>
       </c>
       <c r="BH5" s="4" t="n">
-        <v>14.36775</v>
+        <v>28.37564</v>
       </c>
       <c r="BI5" s="4" t="n">
-        <v>30.16651</v>
+        <v>54.16353</v>
       </c>
       <c r="BJ5" s="4" t="n">
-        <v>0.652</v>
+        <v>1.16</v>
       </c>
       <c r="BK5" s="4" t="n">
-        <v>1.032</v>
+        <v>1.512</v>
       </c>
       <c r="BL5" s="4" t="n">
-        <v>1.272</v>
+        <v>1.912</v>
       </c>
       <c r="BM5" s="4" t="n">
-        <v>2.672</v>
+        <v>2.544</v>
       </c>
       <c r="BN5" s="4" t="n">
-        <v>2.64</v>
+        <v>2.736</v>
       </c>
       <c r="BO5" s="4" t="n">
-        <v>2.736</v>
+        <v>2.704</v>
       </c>
       <c r="BP5" s="4" t="n">
-        <v>49.92</v>
+        <v>55.04</v>
       </c>
       <c r="BQ5" s="4" t="n">
-        <v>97.792</v>
+        <v>128.512</v>
       </c>
       <c r="BR5" s="4" t="n">
-        <v>138.24</v>
+        <v>224.256</v>
       </c>
       <c r="BS5" s="4" t="n">
-        <v>254.976</v>
+        <v>387.072</v>
       </c>
       <c r="BT5" s="4" t="n">
-        <v>477.184</v>
+        <v>978.944</v>
       </c>
       <c r="BU5" s="4" t="n">
-        <v>183.296</v>
+        <v>228.352</v>
       </c>
       <c r="BV5" s="4" t="n">
-        <v>38.89</v>
+        <v>42.56</v>
       </c>
       <c r="BW5" s="4" t="n">
-        <v>39.66</v>
+        <v>37.4</v>
       </c>
       <c r="BX5" s="4" t="n">
-        <v>39.45</v>
+        <v>34.75</v>
       </c>
       <c r="BY5" s="4" t="n">
-        <v>30.99</v>
+        <v>25.2</v>
       </c>
       <c r="BZ5" s="4" t="n">
-        <v>20.92</v>
+        <v>12.51</v>
       </c>
       <c r="CA5" s="4" t="n">
-        <v>8.65</v>
+        <v>5.7</v>
       </c>
       <c r="CB5" s="4" t="n">
-        <v>12.45</v>
+        <v>5.66</v>
       </c>
       <c r="CC5" s="4" t="n">
-        <v>10.59</v>
+        <v>8.07</v>
       </c>
       <c r="CD5" s="4" t="n">
-        <v>9.74</v>
+        <v>9.17</v>
       </c>
       <c r="CE5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.45</v>
       </c>
       <c r="CF5" s="4" t="n">
-        <v>4.42</v>
+        <v>3.05</v>
       </c>
       <c r="CG5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -4423,11 +4423,11 @@
     <col width="10" customWidth="1" min="54" max="54"/>
     <col width="10" customWidth="1" min="55" max="55"/>
     <col width="20" customWidth="1" min="56" max="56"/>
-    <col width="20" customWidth="1" min="57" max="57"/>
+    <col width="10" customWidth="1" min="57" max="57"/>
     <col width="10" customWidth="1" min="58" max="58"/>
     <col width="10" customWidth="1" min="59" max="59"/>
     <col width="10" customWidth="1" min="60" max="60"/>
-    <col width="11" customWidth="1" min="61" max="61"/>
+    <col width="10" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="10" customWidth="1" min="63" max="63"/>
     <col width="10" customWidth="1" min="64" max="64"/>
@@ -4863,256 +4863,256 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7984</v>
+        <v>13300</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1047</v>
+        <v>1737</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1972</v>
+        <v>2037</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2307</v>
+        <v>2294</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2444</v>
+        <v>2511</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>25.68</v>
+        <v>23.05</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>25.92</v>
+        <v>24.97</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>30.36</v>
+        <v>29.86</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>180.5</v>
+        <v>184.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>543.53</v>
+        <v>566.92</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1343.03</v>
+        <v>1318.56</v>
       </c>
       <c r="T3" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>27</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>28</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>34</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>247</v>
+        <v>32900</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>46924</v>
+        <v>64750</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.85</v>
+        <v>50.41</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>35.2</v>
+        <v>35.94</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.29</v>
+        <v>24.32</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>15.58</v>
+        <v>17.77</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>13.4</v>
+        <v>11.43</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>6.65</v>
+        <v>6.15</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="AO3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>111000</v>
+        <v>368000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>120000</v>
+        <v>469000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>132000</v>
+        <v>546000</v>
       </c>
       <c r="AU3" s="4" t="n">
-        <v>141000</v>
+        <v>600000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>141000</v>
+        <v>624000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>142000</v>
+        <v>631000</v>
       </c>
       <c r="AX3" s="4" t="n">
-        <v>455</v>
+        <v>1506</v>
       </c>
       <c r="AY3" s="4" t="n">
-        <v>491</v>
+        <v>1923</v>
       </c>
       <c r="AZ3" s="4" t="n">
-        <v>541</v>
+        <v>2237</v>
       </c>
       <c r="BA3" s="4" t="n">
-        <v>578</v>
+        <v>2458</v>
       </c>
       <c r="BB3" s="4" t="n">
-        <v>576</v>
+        <v>2557</v>
       </c>
       <c r="BC3" s="4" t="n">
-        <v>583</v>
+        <v>2585</v>
       </c>
       <c r="BD3" s="4" t="n">
-        <v>0.9104500000000001</v>
+        <v>0.9314199999999999</v>
       </c>
       <c r="BE3" s="4" t="n">
-        <v>0.9905700000000001</v>
+        <v>0.95763</v>
       </c>
       <c r="BF3" s="4" t="n">
-        <v>1.05987</v>
+        <v>1.03556</v>
       </c>
       <c r="BG3" s="4" t="n">
-        <v>20.95505</v>
+        <v>5.85643</v>
       </c>
       <c r="BH3" s="4" t="n">
-        <v>69.73621</v>
+        <v>16.86985</v>
       </c>
       <c r="BI3" s="4" t="n">
-        <v>181.96536</v>
+        <v>41.69602</v>
       </c>
       <c r="BJ3" s="4" t="n">
         <v>1.288</v>
       </c>
       <c r="BK3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.432</v>
       </c>
       <c r="BL3" s="4" t="n">
-        <v>1.608</v>
+        <v>1.592</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>5.856</v>
+        <v>5.152</v>
       </c>
       <c r="BN3" s="4" t="n">
-        <v>8.096</v>
+        <v>6.88</v>
       </c>
       <c r="BO3" s="4" t="n">
-        <v>8.512</v>
+        <v>6.624</v>
       </c>
       <c r="BP3" s="4" t="n">
-        <v>1.704</v>
+        <v>1.656</v>
       </c>
       <c r="BQ3" s="4" t="n">
-        <v>1.944</v>
+        <v>1.912</v>
       </c>
       <c r="BR3" s="4" t="n">
-        <v>2.224</v>
+        <v>2.16</v>
       </c>
       <c r="BS3" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>8.384</v>
       </c>
       <c r="BT3" s="4" t="n">
-        <v>12.096</v>
+        <v>11.712</v>
       </c>
       <c r="BU3" s="4" t="n">
-        <v>13.76</v>
+        <v>11.072</v>
       </c>
       <c r="BV3" s="4" t="n">
-        <v>15.99</v>
+        <v>49.02</v>
       </c>
       <c r="BW3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>35.08</v>
       </c>
       <c r="BX3" s="4" t="n">
-        <v>4.91</v>
+        <v>24.71</v>
       </c>
       <c r="BY3" s="4" t="n">
-        <v>5.27</v>
+        <v>18.21</v>
       </c>
       <c r="BZ3" s="4" t="n">
-        <v>4.3</v>
+        <v>15.59</v>
       </c>
       <c r="CA3" s="4" t="n">
-        <v>2.39</v>
+        <v>6.61</v>
       </c>
       <c r="CB3" s="4" t="n">
-        <v>2.29</v>
+        <v>6.18</v>
       </c>
       <c r="CC3" s="4" t="n">
-        <v>1.21</v>
+        <v>5.06</v>
       </c>
       <c r="CD3" s="4" t="n">
-        <v>0.67</v>
+        <v>3.65</v>
       </c>
       <c r="CE3" s="4" t="n">
-        <v>1.09</v>
+        <v>4.24</v>
       </c>
       <c r="CF3" s="4" t="n">
-        <v>0.68</v>
+        <v>2.72</v>
       </c>
       <c r="CG3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -5122,256 +5122,256 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4329</v>
+        <v>4171</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5316</v>
+        <v>9671</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>697</v>
+        <v>1268</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2002</v>
+        <v>2026</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2407</v>
+        <v>2380</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2467</v>
+        <v>2494</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>177.06</v>
+        <v>187.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>272.4</v>
+        <v>103.3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>71.44</v>
+        <v>73.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>211.28</v>
+        <v>209.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>592.13</v>
+        <v>587.73</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1342.34</v>
+        <v>1342.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>60556</v>
+        <v>59507</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.53</v>
+        <v>25.01</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>23.37</v>
+        <v>18.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.01</v>
+        <v>10.59</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>7.09</v>
+        <v>7.51</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.55</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="AN4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AO4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>127000</v>
+        <v>121000</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>200000</v>
+        <v>191000</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>324000</v>
+        <v>313000</v>
       </c>
       <c r="AU4" s="4" t="n">
         <v>488000</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>589000</v>
+        <v>587000</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>615000</v>
+        <v>610000</v>
       </c>
       <c r="AX4" s="4" t="n">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="AY4" s="4" t="n">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="AZ4" s="4" t="n">
-        <v>1326</v>
+        <v>1282</v>
       </c>
       <c r="BA4" s="4" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="BB4" s="4" t="n">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="BC4" s="4" t="n">
-        <v>2521</v>
+        <v>2499</v>
       </c>
       <c r="BD4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="BE4" s="4" t="n">
-        <v>7.35</v>
+        <v>7.16</v>
       </c>
       <c r="BF4" s="4" t="n">
-        <v>7.63</v>
+        <v>8.18</v>
       </c>
       <c r="BG4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.37</v>
       </c>
       <c r="BH4" s="4" t="n">
-        <v>19.17</v>
+        <v>18.99</v>
       </c>
       <c r="BI4" s="4" t="n">
-        <v>43.2</v>
+        <v>43.34</v>
       </c>
       <c r="BJ4" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK4" s="4" t="n">
-        <v>9.023999999999999</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="BL4" s="4" t="n">
-        <v>9.664</v>
+        <v>10.688</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>13.632</v>
+        <v>14.016</v>
       </c>
       <c r="BN4" s="4" t="n">
         <v>18</v>
       </c>
       <c r="BO4" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP4" s="4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BQ4" s="4" t="n">
-        <v>10.048</v>
+        <v>9.792</v>
       </c>
       <c r="BR4" s="4" t="n">
-        <v>11.072</v>
+        <v>12.352</v>
       </c>
       <c r="BS4" s="4" t="n">
-        <v>15.424</v>
+        <v>15.808</v>
       </c>
       <c r="BT4" s="4" t="n">
         <v>32</v>
       </c>
       <c r="BU4" s="4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="BV4" s="4" t="n">
-        <v>30.58</v>
+        <v>33.04</v>
       </c>
       <c r="BW4" s="4" t="n">
-        <v>37.74</v>
+        <v>32.03</v>
       </c>
       <c r="BX4" s="4" t="n">
-        <v>30.52</v>
+        <v>33.61</v>
       </c>
       <c r="BY4" s="4" t="n">
-        <v>35.65</v>
+        <v>34.81</v>
       </c>
       <c r="BZ4" s="4" t="n">
-        <v>18.66</v>
+        <v>17.16</v>
       </c>
       <c r="CA4" s="4" t="n">
-        <v>8.93</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="CB4" s="4" t="n">
-        <v>5.22</v>
+        <v>7.11</v>
       </c>
       <c r="CC4" s="4" t="n">
-        <v>6.56</v>
+        <v>5.12</v>
       </c>
       <c r="CD4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="CE4" s="4" t="n">
-        <v>3.7</v>
+        <v>4.57</v>
       </c>
       <c r="CF4" s="4" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="CG4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -5381,190 +5381,190 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4177</v>
+        <v>8454</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9314</v>
+        <v>9947</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>15800</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13000</v>
+        <v>14200</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>548</v>
+        <v>1108</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1221</v>
+        <v>1304</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1833</v>
+        <v>1864</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>62.11</v>
+        <v>65.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>94.36</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>160.58</v>
+        <v>160.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>293.11</v>
+        <v>292.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>738.3200000000001</v>
+        <v>740.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>2049.38</v>
+        <v>2001.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>355</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>6652</v>
+        <v>6587</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2606</v>
+        <v>2245</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>12518</v>
+        <v>11994</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.62</v>
+        <v>31.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>30.47</v>
+        <v>34.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>44.11</v>
+        <v>42.95</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>53.68</v>
+        <v>57.91</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>77.58</v>
+        <v>78.5</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>69.84999999999999</v>
+        <v>70.41</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>79300</v>
+        <v>132000</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>90600</v>
+        <v>178000</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>117000</v>
+        <v>219000</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>121000</v>
+        <v>297000</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>129000</v>
+        <v>239000</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>133000</v>
+        <v>185000</v>
       </c>
       <c r="AX5" s="4" t="n">
-        <v>325</v>
+        <v>541</v>
       </c>
       <c r="AY5" s="4" t="n">
-        <v>371</v>
+        <v>728</v>
       </c>
       <c r="AZ5" s="4" t="n">
-        <v>479</v>
+        <v>895</v>
       </c>
       <c r="BA5" s="4" t="n">
-        <v>496</v>
+        <v>1216</v>
       </c>
       <c r="BB5" s="4" t="n">
-        <v>530</v>
+        <v>981</v>
       </c>
       <c r="BC5" s="4" t="n">
-        <v>547</v>
+        <v>759</v>
       </c>
       <c r="BD5" s="4" t="n">
-        <v>4.46999</v>
+        <v>4.98</v>
       </c>
       <c r="BE5" s="4" t="n">
-        <v>8.34</v>
+        <v>7.95</v>
       </c>
       <c r="BF5" s="4" t="n">
-        <v>13.51</v>
+        <v>14.02</v>
       </c>
       <c r="BG5" s="4" t="n">
-        <v>26.78</v>
+        <v>24.51</v>
       </c>
       <c r="BH5" s="4" t="n">
-        <v>78.98999999999999</v>
+        <v>61.69</v>
       </c>
       <c r="BI5" s="4" t="n">
-        <v>199.01</v>
+        <v>165.12</v>
       </c>
       <c r="BJ5" s="4" t="n">
-        <v>4.96</v>
+        <v>5.984</v>
       </c>
       <c r="BK5" s="4" t="n">
-        <v>10.304</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="BL5" s="4" t="n">
         <v>17</v>
@@ -5573,64 +5573,64 @@
         <v>31</v>
       </c>
       <c r="BN5" s="4" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BO5" s="4" t="n">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="BP5" s="4" t="n">
-        <v>5.344</v>
+        <v>6.688</v>
       </c>
       <c r="BQ5" s="4" t="n">
-        <v>15.04</v>
+        <v>11.968</v>
       </c>
       <c r="BR5" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS5" s="4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="BT5" s="4" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BU5" s="4" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="BV5" s="4" t="n">
-        <v>15.4</v>
+        <v>33.92</v>
       </c>
       <c r="BW5" s="4" t="n">
-        <v>25.8</v>
+        <v>48.12</v>
       </c>
       <c r="BX5" s="4" t="n">
-        <v>32.36</v>
+        <v>64.27</v>
       </c>
       <c r="BY5" s="4" t="n">
-        <v>34.71</v>
+        <v>85.16</v>
       </c>
       <c r="BZ5" s="4" t="n">
-        <v>45.19</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="CA5" s="4" t="n">
-        <v>41.6</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="CB5" s="4" t="n">
-        <v>2.81</v>
+        <v>3.98</v>
       </c>
       <c r="CC5" s="4" t="n">
-        <v>1.43</v>
+        <v>2.75</v>
       </c>
       <c r="CD5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.54</v>
       </c>
       <c r="CE5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.1</v>
       </c>
       <c r="CF5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
       <c r="CG5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
